--- a/biology/Zoologie/Calidridinae/Calidridinae.xlsx
+++ b/biology/Zoologie/Calidridinae/Calidridinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La sous-famille des Calidridinae est une sous-famille d'échassiers appelés bécasseaux ou combattants.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste alphabétique des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Aphriza Audubon, 1839 (1 espèce)
 Calidris Merrem, 1804 (19 espèces)
@@ -546,7 +560,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la classification (version 2.2, 2009) du Congrès ornithologique international, ces genres sont constitués des espèces suivantes (par ordre phylogénique) :
 </t>
@@ -577,7 +593,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Taylor D. (2006) Guide des limicoles d'Europe, d'Asie et d'Amérique du Nord. Delachaux &amp; Niestlé, Paris, 224 p.
  Portail de l'ornithologie                     </t>
